--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T08:58:45+00:00</t>
+    <t>2023-07-11T09:02:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T09:02:59+00:00</t>
+    <t>2023-07-26T14:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T14:54:45+00:00</t>
+    <t>2023-07-26T15:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:00:21+00:00</t>
+    <t>2023-07-26T15:44:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:44:02+00:00</t>
+    <t>2023-07-27T13:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:02:42+00:00</t>
+    <t>2023-07-27T13:06:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:06:07+00:00</t>
+    <t>2023-08-31T15:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>A container for a collection of resources.</t>
+  </si>
+  <si>
+    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -1295,16 +1299,16 @@
         <v>34</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>34</v>
@@ -1312,10 +1316,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1326,7 +1330,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>34</v>
@@ -1335,19 +1339,19 @@
         <v>34</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1397,13 +1401,13 @@
         <v>34</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>34</v>
@@ -1426,10 +1430,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1440,7 +1444,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>34</v>
@@ -1449,16 +1453,16 @@
         <v>34</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1509,19 +1513,19 @@
         <v>34</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>34</v>
@@ -1538,10 +1542,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1552,28 +1556,28 @@
         <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1623,19 +1627,19 @@
         <v>34</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>34</v>
@@ -1652,10 +1656,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1666,7 +1670,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>34</v>
@@ -1678,16 +1682,16 @@
         <v>34</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1713,13 +1717,13 @@
         <v>34</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>34</v>
@@ -1737,19 +1741,19 @@
         <v>34</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>34</v>
@@ -1766,10 +1770,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1780,7 +1784,7 @@
         <v>35</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>34</v>
@@ -1789,19 +1793,19 @@
         <v>34</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1851,19 +1855,19 @@
         <v>34</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>34</v>
@@ -1872,18 +1876,18 @@
         <v>34</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1891,10 +1895,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>34</v>
@@ -1903,19 +1907,19 @@
         <v>34</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1923,7 +1927,7 @@
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>34</v>
@@ -1941,13 +1945,13 @@
         <v>34</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>34</v>
@@ -1965,19 +1969,19 @@
         <v>34</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>34</v>
@@ -1989,15 +1993,15 @@
         <v>34</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2008,7 +2012,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>34</v>
@@ -2017,19 +2021,19 @@
         <v>34</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2079,19 +2083,19 @@
         <v>34</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>34</v>
@@ -2100,18 +2104,18 @@
         <v>34</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2119,10 +2123,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>34</v>
@@ -2131,19 +2135,19 @@
         <v>34</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2193,19 +2197,19 @@
         <v>34</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>34</v>
@@ -2222,10 +2226,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2245,19 +2249,19 @@
         <v>34</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2307,7 +2311,7 @@
         <v>34</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>35</v>
@@ -2319,7 +2323,7 @@
         <v>34</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>34</v>
@@ -2336,10 +2340,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2350,7 +2354,7 @@
         <v>35</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>34</v>
@@ -2362,13 +2366,13 @@
         <v>34</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2419,13 +2423,13 @@
         <v>34</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>34</v>
@@ -2437,7 +2441,7 @@
         <v>34</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>34</v>
@@ -2448,14 +2452,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2474,16 +2478,16 @@
         <v>34</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2533,7 +2537,7 @@
         <v>34</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>35</v>
@@ -2545,13 +2549,13 @@
         <v>34</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>34</v>
@@ -2562,14 +2566,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2582,25 +2586,25 @@
         <v>34</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>34</v>
@@ -2649,7 +2653,7 @@
         <v>34</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
@@ -2661,13 +2665,13 @@
         <v>34</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>34</v>
@@ -2678,10 +2682,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2689,10 +2693,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>34</v>
@@ -2701,16 +2705,16 @@
         <v>34</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2761,19 +2765,19 @@
         <v>34</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>34</v>
@@ -2790,10 +2794,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2801,10 +2805,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>34</v>
@@ -2813,16 +2817,16 @@
         <v>34</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2873,19 +2877,19 @@
         <v>34</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>34</v>
@@ -2902,10 +2906,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2925,16 +2929,16 @@
         <v>34</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2973,17 +2977,17 @@
         <v>34</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -2995,7 +2999,7 @@
         <v>34</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>34</v>
@@ -3012,10 +3016,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3026,7 +3030,7 @@
         <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>34</v>
@@ -3038,13 +3042,13 @@
         <v>34</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3095,13 +3099,13 @@
         <v>34</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>34</v>
@@ -3113,7 +3117,7 @@
         <v>34</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>34</v>
@@ -3124,14 +3128,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3150,16 +3154,16 @@
         <v>34</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3209,7 +3213,7 @@
         <v>34</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
@@ -3221,13 +3225,13 @@
         <v>34</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>34</v>
@@ -3238,14 +3242,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3258,25 +3262,25 @@
         <v>34</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>34</v>
@@ -3325,7 +3329,7 @@
         <v>34</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -3337,13 +3341,13 @@
         <v>34</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>34</v>
@@ -3354,10 +3358,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3377,16 +3381,16 @@
         <v>34</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3437,7 +3441,7 @@
         <v>34</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -3449,7 +3453,7 @@
         <v>34</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>34</v>
@@ -3466,10 +3470,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3477,10 +3481,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>34</v>
@@ -3489,19 +3493,19 @@
         <v>34</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3551,19 +3555,19 @@
         <v>34</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>34</v>
@@ -3580,10 +3584,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3594,7 +3598,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>34</v>
@@ -3603,16 +3607,16 @@
         <v>34</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3663,13 +3667,13 @@
         <v>34</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>34</v>
@@ -3692,10 +3696,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3706,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>34</v>
@@ -3715,16 +3719,16 @@
         <v>34</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3775,19 +3779,19 @@
         <v>34</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>34</v>
@@ -3804,10 +3808,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3818,7 +3822,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>34</v>
@@ -3830,13 +3834,13 @@
         <v>34</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3887,13 +3891,13 @@
         <v>34</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>34</v>
@@ -3905,7 +3909,7 @@
         <v>34</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>34</v>
@@ -3916,14 +3920,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3942,16 +3946,16 @@
         <v>34</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4001,7 +4005,7 @@
         <v>34</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
@@ -4013,13 +4017,13 @@
         <v>34</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>34</v>
@@ -4030,14 +4034,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4050,25 +4054,25 @@
         <v>34</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>34</v>
@@ -4117,7 +4121,7 @@
         <v>34</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4129,13 +4133,13 @@
         <v>34</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>34</v>
@@ -4146,10 +4150,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4160,7 +4164,7 @@
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>34</v>
@@ -4169,19 +4173,19 @@
         <v>34</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4207,13 +4211,13 @@
         <v>34</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>34</v>
@@ -4231,19 +4235,19 @@
         <v>34</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>34</v>
@@ -4260,10 +4264,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4274,7 +4278,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>34</v>
@@ -4283,19 +4287,19 @@
         <v>34</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4345,19 +4349,19 @@
         <v>34</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>34</v>
@@ -4374,10 +4378,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4388,7 +4392,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>34</v>
@@ -4397,16 +4401,16 @@
         <v>34</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4457,19 +4461,19 @@
         <v>34</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>34</v>
@@ -4486,10 +4490,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4500,7 +4504,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>34</v>
@@ -4512,13 +4516,13 @@
         <v>34</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4569,13 +4573,13 @@
         <v>34</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>34</v>
@@ -4587,7 +4591,7 @@
         <v>34</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>34</v>
@@ -4598,14 +4602,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4624,16 +4628,16 @@
         <v>34</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4683,7 +4687,7 @@
         <v>34</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -4695,13 +4699,13 @@
         <v>34</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>34</v>
@@ -4712,14 +4716,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4732,25 +4736,25 @@
         <v>34</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>34</v>
@@ -4799,7 +4803,7 @@
         <v>34</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -4811,13 +4815,13 @@
         <v>34</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>34</v>
@@ -4828,10 +4832,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4839,10 +4843,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>34</v>
@@ -4851,16 +4855,16 @@
         <v>34</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4887,13 +4891,13 @@
         <v>34</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>34</v>
@@ -4911,19 +4915,19 @@
         <v>34</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>34</v>
@@ -4940,10 +4944,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4951,10 +4955,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>34</v>
@@ -4963,19 +4967,19 @@
         <v>34</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5025,19 +5029,19 @@
         <v>34</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>34</v>
@@ -5054,10 +5058,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5068,7 +5072,7 @@
         <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>34</v>
@@ -5077,16 +5081,16 @@
         <v>34</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5137,19 +5141,19 @@
         <v>34</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>34</v>
@@ -5166,10 +5170,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5180,7 +5184,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>34</v>
@@ -5189,16 +5193,16 @@
         <v>34</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5249,19 +5253,19 @@
         <v>34</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>34</v>
@@ -5278,10 +5282,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5292,7 +5296,7 @@
         <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>34</v>
@@ -5301,16 +5305,16 @@
         <v>34</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5361,19 +5365,19 @@
         <v>34</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>34</v>
@@ -5390,10 +5394,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5404,7 +5408,7 @@
         <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>34</v>
@@ -5413,16 +5417,16 @@
         <v>34</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5473,19 +5477,19 @@
         <v>34</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>34</v>
@@ -5502,10 +5506,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5516,7 +5520,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>34</v>
@@ -5525,16 +5529,16 @@
         <v>34</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5585,19 +5589,19 @@
         <v>34</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>34</v>
@@ -5614,10 +5618,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5628,7 +5632,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>34</v>
@@ -5640,13 +5644,13 @@
         <v>34</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5697,13 +5701,13 @@
         <v>34</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>34</v>
@@ -5715,7 +5719,7 @@
         <v>34</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>34</v>
@@ -5726,14 +5730,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5752,16 +5756,16 @@
         <v>34</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5811,7 +5815,7 @@
         <v>34</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -5823,13 +5827,13 @@
         <v>34</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>34</v>
@@ -5840,14 +5844,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5860,25 +5864,25 @@
         <v>34</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>34</v>
@@ -5927,7 +5931,7 @@
         <v>34</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -5939,13 +5943,13 @@
         <v>34</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>34</v>
@@ -5956,10 +5960,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5967,10 +5971,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>34</v>
@@ -5979,16 +5983,16 @@
         <v>34</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6039,19 +6043,19 @@
         <v>34</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>34</v>
@@ -6068,10 +6072,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6082,7 +6086,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>34</v>
@@ -6091,16 +6095,16 @@
         <v>34</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6151,19 +6155,19 @@
         <v>34</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>34</v>
@@ -6180,10 +6184,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6194,7 +6198,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>34</v>
@@ -6203,19 +6207,19 @@
         <v>34</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6265,19 +6269,19 @@
         <v>34</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>34</v>
@@ -6294,10 +6298,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6308,7 +6312,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>34</v>
@@ -6317,19 +6321,19 @@
         <v>34</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6379,19 +6383,19 @@
         <v>34</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>34</v>
@@ -6408,10 +6412,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6422,7 +6426,7 @@
         <v>35</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>34</v>
@@ -6431,19 +6435,19 @@
         <v>34</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6493,13 +6497,13 @@
         <v>34</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>34</v>
@@ -6522,13 +6526,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>34</v>
@@ -6547,16 +6551,16 @@
         <v>34</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6607,7 +6611,7 @@
         <v>34</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -6619,7 +6623,7 @@
         <v>34</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>34</v>
@@ -6636,10 +6640,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6650,7 +6654,7 @@
         <v>35</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>34</v>
@@ -6662,13 +6666,13 @@
         <v>34</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6719,13 +6723,13 @@
         <v>34</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>34</v>
@@ -6737,7 +6741,7 @@
         <v>34</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>34</v>
@@ -6748,14 +6752,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6774,16 +6778,16 @@
         <v>34</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -6833,7 +6837,7 @@
         <v>34</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -6845,13 +6849,13 @@
         <v>34</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>34</v>
@@ -6862,14 +6866,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -6882,25 +6886,25 @@
         <v>34</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>34</v>
@@ -6949,7 +6953,7 @@
         <v>34</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -6961,13 +6965,13 @@
         <v>34</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>34</v>
@@ -6978,10 +6982,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7001,16 +7005,16 @@
         <v>34</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7061,7 +7065,7 @@
         <v>34</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -7073,7 +7077,7 @@
         <v>34</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>34</v>
@@ -7090,10 +7094,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7104,7 +7108,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>34</v>
@@ -7113,19 +7117,19 @@
         <v>34</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7175,19 +7179,19 @@
         <v>34</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>34</v>
@@ -7204,10 +7208,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7215,10 +7219,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>34</v>
@@ -7230,16 +7234,16 @@
         <v>34</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7289,28 +7293,28 @@
         <v>34</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>34</v>
@@ -7318,10 +7322,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7332,7 +7336,7 @@
         <v>35</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>34</v>
@@ -7341,16 +7345,16 @@
         <v>34</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7401,19 +7405,19 @@
         <v>34</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>34</v>
@@ -7430,10 +7434,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7444,7 +7448,7 @@
         <v>35</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>34</v>
@@ -7456,13 +7460,13 @@
         <v>34</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7513,13 +7517,13 @@
         <v>34</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>34</v>
@@ -7531,7 +7535,7 @@
         <v>34</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>34</v>
@@ -7542,14 +7546,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7568,16 +7572,16 @@
         <v>34</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7627,7 +7631,7 @@
         <v>34</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -7639,13 +7643,13 @@
         <v>34</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>34</v>
@@ -7656,14 +7660,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7676,25 +7680,25 @@
         <v>34</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>34</v>
@@ -7743,7 +7747,7 @@
         <v>34</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -7755,13 +7759,13 @@
         <v>34</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>34</v>
@@ -7772,10 +7776,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7786,7 +7790,7 @@
         <v>35</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>34</v>
@@ -7795,19 +7799,19 @@
         <v>34</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7833,13 +7837,13 @@
         <v>34</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>34</v>
@@ -7857,19 +7861,19 @@
         <v>34</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>34</v>
@@ -7886,10 +7890,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7900,7 +7904,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>34</v>
@@ -7909,19 +7913,19 @@
         <v>34</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -7971,19 +7975,19 @@
         <v>34</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>34</v>
@@ -8000,10 +8004,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8014,7 +8018,7 @@
         <v>35</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>34</v>
@@ -8023,16 +8027,16 @@
         <v>34</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8083,19 +8087,19 @@
         <v>34</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>34</v>
@@ -8112,10 +8116,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8126,7 +8130,7 @@
         <v>35</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>34</v>
@@ -8138,13 +8142,13 @@
         <v>34</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8195,13 +8199,13 @@
         <v>34</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>34</v>
@@ -8213,7 +8217,7 @@
         <v>34</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>34</v>
@@ -8224,14 +8228,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8250,16 +8254,16 @@
         <v>34</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8309,7 +8313,7 @@
         <v>34</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -8321,13 +8325,13 @@
         <v>34</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>34</v>
@@ -8338,14 +8342,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8358,25 +8362,25 @@
         <v>34</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>34</v>
@@ -8425,7 +8429,7 @@
         <v>34</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -8437,13 +8441,13 @@
         <v>34</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>34</v>
@@ -8454,10 +8458,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8465,10 +8469,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>34</v>
@@ -8477,16 +8481,16 @@
         <v>34</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8513,13 +8517,13 @@
         <v>34</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>34</v>
@@ -8537,19 +8541,19 @@
         <v>34</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>34</v>
@@ -8566,10 +8570,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8577,10 +8581,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>34</v>
@@ -8589,19 +8593,19 @@
         <v>34</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8651,19 +8655,19 @@
         <v>34</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>34</v>
@@ -8680,10 +8684,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8694,7 +8698,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>34</v>
@@ -8703,16 +8707,16 @@
         <v>34</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8763,19 +8767,19 @@
         <v>34</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>34</v>
@@ -8792,10 +8796,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8806,7 +8810,7 @@
         <v>35</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>34</v>
@@ -8815,16 +8819,16 @@
         <v>34</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8875,19 +8879,19 @@
         <v>34</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>34</v>
@@ -8904,10 +8908,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8918,7 +8922,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>34</v>
@@ -8927,16 +8931,16 @@
         <v>34</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8987,19 +8991,19 @@
         <v>34</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>34</v>
@@ -9016,10 +9020,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9030,7 +9034,7 @@
         <v>35</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>34</v>
@@ -9039,16 +9043,16 @@
         <v>34</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9099,19 +9103,19 @@
         <v>34</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>34</v>
@@ -9128,10 +9132,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9142,7 +9146,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>34</v>
@@ -9151,16 +9155,16 @@
         <v>34</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9211,19 +9215,19 @@
         <v>34</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>34</v>
@@ -9240,10 +9244,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9254,7 +9258,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>34</v>
@@ -9266,13 +9270,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9323,13 +9327,13 @@
         <v>34</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>34</v>
@@ -9341,7 +9345,7 @@
         <v>34</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>34</v>
@@ -9352,14 +9356,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9378,16 +9382,16 @@
         <v>34</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9437,7 +9441,7 @@
         <v>34</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -9449,13 +9453,13 @@
         <v>34</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>34</v>
@@ -9466,14 +9470,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9486,25 +9490,25 @@
         <v>34</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>34</v>
@@ -9553,7 +9557,7 @@
         <v>34</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>35</v>
@@ -9565,13 +9569,13 @@
         <v>34</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>34</v>
@@ -9582,10 +9586,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9593,10 +9597,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>34</v>
@@ -9605,16 +9609,16 @@
         <v>34</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9665,19 +9669,19 @@
         <v>34</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>34</v>
@@ -9694,10 +9698,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9708,7 +9712,7 @@
         <v>35</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>34</v>
@@ -9717,16 +9721,16 @@
         <v>34</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9777,19 +9781,19 @@
         <v>34</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>34</v>
@@ -9806,10 +9810,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9820,7 +9824,7 @@
         <v>35</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>34</v>
@@ -9829,19 +9833,19 @@
         <v>34</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -9891,19 +9895,19 @@
         <v>34</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>34</v>
@@ -9920,10 +9924,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9934,7 +9938,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>34</v>
@@ -9943,19 +9947,19 @@
         <v>34</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10005,19 +10009,19 @@
         <v>34</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>34</v>
@@ -10034,10 +10038,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10048,7 +10052,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>34</v>
@@ -10057,19 +10061,19 @@
         <v>34</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10119,13 +10123,13 @@
         <v>34</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>34</v>
@@ -10148,10 +10152,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10162,7 +10166,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>34</v>
@@ -10171,22 +10175,22 @@
         <v>34</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>34</v>
@@ -10235,19 +10239,19 @@
         <v>34</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>34</v>

--- a/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
+++ b/ig/nr-update-annuaire-dependency/StructureDefinition-pdsm-find-documentreferences-comprehensive-response.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:15:41+00:00</t>
+    <t>2023-08-31T15:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
